--- a/output/output_bradleycooper.xlsx
+++ b/output/output_bradleycooper.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRABA\PycharmProjects\Spark\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -91,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -175,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,14 +431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +448,16 @@
         <v>86</v>
       </c>
       <c r="C1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>286</v>
+      </c>
+      <c r="D1">
+        <v>372</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -442,10 +465,16 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>263</v>
+      </c>
+      <c r="D2">
+        <v>362</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -453,10 +482,16 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D3">
+        <v>182</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -464,10 +499,16 @@
         <v>99</v>
       </c>
       <c r="C4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>476</v>
+      </c>
+      <c r="D4">
+        <v>575</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -475,10 +516,16 @@
         <v>60</v>
       </c>
       <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>125</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -486,10 +533,16 @@
         <v>63</v>
       </c>
       <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>153</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -497,10 +550,16 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>155</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -508,10 +567,16 @@
         <v>95</v>
       </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>562</v>
+      </c>
+      <c r="D8">
+        <v>657</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -519,10 +584,16 @@
         <v>105</v>
       </c>
       <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D9">
+        <v>233</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -530,10 +601,16 @@
         <v>94</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>178</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -541,10 +618,16 @@
         <v>56</v>
       </c>
       <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>213</v>
+      </c>
+      <c r="D11">
+        <v>269</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -552,10 +635,16 @@
         <v>99</v>
       </c>
       <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>438</v>
+      </c>
+      <c r="D12">
+        <v>537</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -563,10 +652,16 @@
         <v>73</v>
       </c>
       <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>158</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -574,10 +669,16 @@
         <v>79</v>
       </c>
       <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>297</v>
+      </c>
+      <c r="D14">
+        <v>376</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -585,10 +686,16 @@
         <v>89</v>
       </c>
       <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>204</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -596,10 +703,16 @@
         <v>90</v>
       </c>
       <c r="C16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>292</v>
+      </c>
+      <c r="D16">
+        <v>382</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -607,10 +720,16 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>368</v>
+      </c>
+      <c r="D17">
+        <v>420</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -618,10 +737,16 @@
         <v>68</v>
       </c>
       <c r="C18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="D18">
+        <v>210</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -629,10 +754,16 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -640,10 +771,16 @@
         <v>53</v>
       </c>
       <c r="C20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>143</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -651,10 +788,16 @@
         <v>89</v>
       </c>
       <c r="C21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>175</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -662,10 +805,16 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -673,10 +822,16 @@
         <v>66</v>
       </c>
       <c r="C23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>203</v>
+      </c>
+      <c r="D23">
+        <v>269</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -684,6 +839,12 @@
         <v>50</v>
       </c>
       <c r="C24">
+        <v>67</v>
+      </c>
+      <c r="D24">
+        <v>117</v>
+      </c>
+      <c r="E24">
         <v>7</v>
       </c>
     </row>
